--- a/BackTest/2020-01-12 BackTest BHP.xlsx
+++ b/BackTest/2020-01-12 BackTest BHP.xlsx
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -12316,13 +12316,17 @@
         <v>951.55</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>942</v>
+      </c>
+      <c r="K341" t="n">
+        <v>942</v>
+      </c>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
@@ -12351,14 +12355,22 @@
         <v>951.35</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>943</v>
+      </c>
+      <c r="K342" t="n">
+        <v>942</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12386,14 +12398,22 @@
         <v>951.1666666666666</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>945</v>
+      </c>
+      <c r="K343" t="n">
+        <v>942</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12421,14 +12441,22 @@
         <v>950.9666666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>945</v>
+      </c>
+      <c r="K344" t="n">
+        <v>942</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12456,14 +12484,22 @@
         <v>950.8</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>945</v>
+      </c>
+      <c r="K345" t="n">
+        <v>942</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12491,14 +12527,22 @@
         <v>950.5666666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>947</v>
+      </c>
+      <c r="K346" t="n">
+        <v>942</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12526,14 +12570,22 @@
         <v>950.3</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>945</v>
+      </c>
+      <c r="K347" t="n">
+        <v>942</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12561,14 +12613,22 @@
         <v>950.0666666666667</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>943</v>
+      </c>
+      <c r="K348" t="n">
+        <v>942</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12602,8 +12662,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>942</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12637,8 +12703,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>942</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12672,8 +12744,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>942</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +12785,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>942</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +12826,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>942</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12777,8 +12867,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>942</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12806,14 +12902,22 @@
         <v>948.3</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>939</v>
+      </c>
+      <c r="K355" t="n">
+        <v>942</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12841,14 +12945,22 @@
         <v>948.0333333333333</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>941</v>
+      </c>
+      <c r="K356" t="n">
+        <v>942</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12876,14 +12988,22 @@
         <v>947.7666666666667</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>941</v>
+      </c>
+      <c r="K357" t="n">
+        <v>942</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12911,14 +13031,22 @@
         <v>947.4666666666667</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>941</v>
+      </c>
+      <c r="K358" t="n">
+        <v>942</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +13080,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>942</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12981,14 +13115,22 @@
         <v>946.9</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>941</v>
+      </c>
+      <c r="K360" t="n">
+        <v>942</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13016,18 +13158,20 @@
         <v>946.6333333333333</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>943</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>943</v>
-      </c>
-      <c r="L361" t="inlineStr"/>
+        <v>942</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13062,11 +13206,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M362" t="n">
@@ -13103,7 +13247,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13144,7 +13288,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13185,7 +13329,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13226,7 +13370,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13267,7 +13411,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13308,7 +13452,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13349,7 +13493,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13390,7 +13534,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13431,7 +13575,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13472,7 +13616,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13513,7 +13657,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13554,7 +13698,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13595,7 +13739,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -13636,7 +13780,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -13677,7 +13821,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -13718,7 +13862,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -13759,7 +13903,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -13800,7 +13944,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -13841,7 +13985,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -13882,7 +14026,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -13923,7 +14067,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -13964,7 +14108,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14005,7 +14149,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14046,7 +14190,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14087,7 +14231,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -14128,7 +14272,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -14169,7 +14313,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -14210,7 +14354,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14251,7 +14395,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -14292,7 +14436,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -14333,7 +14477,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -14374,7 +14518,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -14415,7 +14559,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -14456,7 +14600,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -14497,7 +14641,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -14538,7 +14682,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -14579,7 +14723,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -14620,7 +14764,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -14661,7 +14805,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -14702,7 +14846,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -14743,7 +14887,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -14784,7 +14928,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -14825,7 +14969,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -14866,7 +15010,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -14907,7 +15051,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -14948,7 +15092,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -14989,7 +15133,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -15030,7 +15174,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -15071,7 +15215,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -15112,7 +15256,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -15153,7 +15297,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -15194,7 +15338,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -15235,7 +15379,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -15276,7 +15420,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -15317,7 +15461,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15358,7 +15502,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -15399,7 +15543,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -15440,7 +15584,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -15481,7 +15625,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -15522,7 +15666,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -15563,7 +15707,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -15604,7 +15748,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -15645,7 +15789,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -15686,7 +15830,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -15727,7 +15871,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -15768,7 +15912,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -15809,7 +15953,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -15850,7 +15994,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -15891,7 +16035,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -15932,7 +16076,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -15973,7 +16117,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -16014,7 +16158,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -16055,7 +16199,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -16096,7 +16240,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -16137,7 +16281,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -16178,7 +16322,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -16219,7 +16363,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -16260,7 +16404,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -16301,7 +16445,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -16342,7 +16486,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -16383,7 +16527,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -16424,7 +16568,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -16465,7 +16609,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -16506,7 +16650,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -16540,14 +16684,16 @@
         <v>946.3666666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>941</v>
+      </c>
       <c r="K447" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -16590,7 +16736,7 @@
         <v>943</v>
       </c>
       <c r="K448" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -16624,14 +16770,16 @@
         <v>946.3</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>943</v>
+      </c>
       <c r="K449" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -16665,14 +16813,16 @@
         <v>946.1833333333333</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>943</v>
+      </c>
       <c r="K450" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -16706,14 +16856,16 @@
         <v>946.0333333333333</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>941</v>
+      </c>
       <c r="K451" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -16747,16 +16899,14 @@
         <v>945.9166666666666</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>939</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -16790,16 +16940,14 @@
         <v>945.8</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>941</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -16833,16 +16981,14 @@
         <v>945.6666666666666</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>943</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -16882,10 +17028,10 @@
         <v>0</v>
       </c>
       <c r="J455" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="K455" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -16928,7 +17074,7 @@
         <v>943</v>
       </c>
       <c r="K456" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -16962,16 +17108,14 @@
         <v>945.3333333333334</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>943</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -17005,16 +17149,14 @@
         <v>945.2</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>943</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -17048,16 +17190,14 @@
         <v>945.1166666666667</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>943</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -17091,16 +17231,14 @@
         <v>945.05</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>944</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -17134,16 +17272,14 @@
         <v>945.05</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>945</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -17177,16 +17313,14 @@
         <v>945.05</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>945</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -17227,7 +17361,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -17268,7 +17402,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -17309,7 +17443,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -17350,7 +17484,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -17391,7 +17525,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -17432,7 +17566,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -17473,7 +17607,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -17514,7 +17648,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -17555,7 +17689,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -17596,7 +17730,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -17637,7 +17771,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -17678,7 +17812,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -17719,7 +17853,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -17760,7 +17894,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -17794,16 +17928,14 @@
         <v>944.2833333333333</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>941</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -17837,16 +17969,14 @@
         <v>944.15</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>941</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -17880,16 +18010,14 @@
         <v>943.9833333333333</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>939</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -17923,16 +18051,14 @@
         <v>943.8166666666667</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>939</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -17966,16 +18092,14 @@
         <v>943.65</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>941</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -18009,16 +18133,14 @@
         <v>943.5166666666667</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>939</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -18052,16 +18174,14 @@
         <v>943.3833333333333</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>941</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -18095,16 +18215,14 @@
         <v>943.25</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>941</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -18138,16 +18256,14 @@
         <v>943.1166666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>941</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -18181,16 +18297,14 @@
         <v>942.9833333333333</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>939</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -18224,16 +18338,14 @@
         <v>942.85</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>941</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -18267,16 +18379,14 @@
         <v>942.7166666666667</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>941</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -18310,16 +18420,14 @@
         <v>942.5833333333334</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>941</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -18353,16 +18461,14 @@
         <v>942.45</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>941</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -18396,16 +18502,14 @@
         <v>942.35</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>941</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -18439,16 +18543,14 @@
         <v>942.25</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>941</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -18482,16 +18584,14 @@
         <v>942.15</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>941</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -18525,16 +18625,14 @@
         <v>942.0833333333334</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>941</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -18568,16 +18666,14 @@
         <v>942.0166666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>941</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -18611,16 +18707,14 @@
         <v>941.95</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>941</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -18654,16 +18748,14 @@
         <v>941.8833333333333</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>941</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -18697,16 +18789,14 @@
         <v>941.85</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>941</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -18740,16 +18830,14 @@
         <v>941.8166666666667</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>941</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -18783,16 +18871,14 @@
         <v>941.7833333333333</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>941</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -18826,16 +18912,14 @@
         <v>941.7833333333333</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>941</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -18869,16 +18953,14 @@
         <v>941.8166666666667</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>943</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -18912,16 +18994,14 @@
         <v>941.85</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>943</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -18955,16 +19035,14 @@
         <v>941.8833333333333</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>941</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -18998,16 +19076,14 @@
         <v>941.8833333333333</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>941</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -19041,16 +19117,14 @@
         <v>941.8833333333333</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>941</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -19084,16 +19158,14 @@
         <v>941.85</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>941</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -19127,16 +19199,14 @@
         <v>941.85</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="n">
         <v>942</v>
-      </c>
-      <c r="K508" t="n">
-        <v>943</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -19170,16 +19240,14 @@
         <v>941.85</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>943</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -19213,16 +19281,14 @@
         <v>941.8833333333333</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>943</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -19256,16 +19322,14 @@
         <v>941.95</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>943</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -19299,16 +19363,14 @@
         <v>941.9833333333333</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>943</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -19342,16 +19404,14 @@
         <v>942.0166666666667</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>943</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -19385,16 +19445,14 @@
         <v>942.0666666666667</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>945</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -19428,16 +19486,14 @@
         <v>942.1</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>945</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -19471,16 +19527,14 @@
         <v>942.1333333333333</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>945</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -19521,7 +19575,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -19562,7 +19616,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -19603,7 +19657,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -19644,7 +19698,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -19685,7 +19739,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -19726,7 +19780,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -19767,7 +19821,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -19801,16 +19855,14 @@
         <v>942.05</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>941</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -19844,16 +19896,14 @@
         <v>942.0166666666667</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>941</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -19887,16 +19937,14 @@
         <v>941.95</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>941</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -19930,16 +19978,14 @@
         <v>941.9</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>943</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -19973,16 +20019,14 @@
         <v>941.8666666666667</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>943</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -20016,16 +20060,14 @@
         <v>941.8333333333334</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>943</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -20059,16 +20101,14 @@
         <v>941.8333333333334</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>943</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -20102,16 +20142,14 @@
         <v>941.8333333333334</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>943</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -20145,16 +20183,14 @@
         <v>941.8333333333334</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>943</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -20188,16 +20224,14 @@
         <v>941.8333333333334</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>944</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -20231,16 +20265,14 @@
         <v>941.8666666666667</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>943</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -20274,16 +20306,14 @@
         <v>941.9</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>943</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -20317,16 +20347,14 @@
         <v>941.9666666666667</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>943</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -20360,16 +20388,14 @@
         <v>942.0333333333333</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>945</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -20403,16 +20429,14 @@
         <v>942.1</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>945</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -20453,7 +20477,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -20494,7 +20518,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -20535,7 +20559,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -20576,7 +20600,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -20617,7 +20641,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -20658,7 +20682,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -20699,7 +20723,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -20740,7 +20764,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -20781,7 +20805,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -20822,7 +20846,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -20863,7 +20887,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -20904,7 +20928,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -20945,7 +20969,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -20986,7 +21010,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -21027,7 +21051,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -21068,7 +21092,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -21109,7 +21133,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -21150,7 +21174,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -21191,7 +21215,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -21232,7 +21256,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -21273,7 +21297,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -21314,7 +21338,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -21355,7 +21379,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -21396,7 +21420,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -21433,19 +21457,19 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1</v>
+        <v>1.004554140127389</v>
       </c>
     </row>
     <row r="564">
@@ -21474,17 +21498,11 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>943</v>
-      </c>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21518,14 +21536,8 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>943</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21559,14 +21571,8 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>943</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21600,14 +21606,8 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>943</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21641,14 +21641,8 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>943</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21679,17 +21673,11 @@
         <v>0</v>
       </c>
       <c r="I569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>943</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21720,17 +21708,11 @@
         <v>0</v>
       </c>
       <c r="I570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>943</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21761,17 +21743,11 @@
         <v>0</v>
       </c>
       <c r="I571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>943</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21802,17 +21778,11 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>943</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21846,14 +21816,8 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>943</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21887,14 +21851,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>943</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21928,14 +21886,8 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>943</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21969,14 +21921,8 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>943</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22010,14 +21956,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>943</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22051,14 +21991,8 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>943</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22092,14 +22026,8 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>943</v>
-      </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22133,14 +22061,8 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>943</v>
-      </c>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22174,14 +22096,8 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>943</v>
-      </c>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22215,14 +22131,8 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>943</v>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22256,14 +22166,8 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>943</v>
-      </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22297,14 +22201,8 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>943</v>
-      </c>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22338,14 +22236,8 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>943</v>
-      </c>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22379,14 +22271,8 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>943</v>
-      </c>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22417,19 +22303,13 @@
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>943</v>
-      </c>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
-        <v>1.007725344644751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -22458,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
@@ -22493,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
@@ -22528,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
@@ -22563,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
@@ -24310,13 +24190,17 @@
         <v>949.1749999999998</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>943</v>
+      </c>
+      <c r="K641" t="n">
+        <v>943</v>
+      </c>
       <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
@@ -24345,14 +24229,22 @@
         <v>949.0416666666665</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>943</v>
+      </c>
+      <c r="K642" t="n">
+        <v>943</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24380,14 +24272,22 @@
         <v>948.8749999999999</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>945</v>
+      </c>
+      <c r="K643" t="n">
+        <v>943</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24415,13 +24315,17 @@
         <v>948.6916666666665</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>943</v>
+      </c>
+      <c r="K644" t="n">
+        <v>943</v>
+      </c>
       <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
@@ -24450,14 +24354,22 @@
         <v>948.4916666666666</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>943</v>
+      </c>
+      <c r="K645" t="n">
+        <v>943</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24485,14 +24397,22 @@
         <v>948.2916666666665</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>943</v>
+      </c>
+      <c r="K646" t="n">
+        <v>943</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24520,13 +24440,17 @@
         <v>948.1249999999999</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>943</v>
+      </c>
+      <c r="K647" t="n">
+        <v>943</v>
+      </c>
       <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
@@ -24555,14 +24479,22 @@
         <v>947.9583333333333</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>945</v>
+      </c>
+      <c r="K648" t="n">
+        <v>943</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24590,14 +24522,22 @@
         <v>947.7916666666665</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>945</v>
+      </c>
+      <c r="K649" t="n">
+        <v>943</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -26028,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
@@ -26063,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
@@ -26098,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
@@ -26133,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
@@ -26168,7 +26108,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
@@ -26203,7 +26143,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
@@ -26238,7 +26178,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
@@ -26273,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
@@ -26308,7 +26248,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
@@ -29000,20 +28940,14 @@
         <v>944.3833333333333</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>942</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L775" t="inlineStr"/>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29041,20 +28975,14 @@
         <v>944.2833333333333</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>943</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L776" t="inlineStr"/>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29082,20 +29010,14 @@
         <v>944.1833333333333</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="n">
         <v>0</v>
       </c>
-      <c r="J777" t="n">
-        <v>943</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L777" t="inlineStr"/>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29123,20 +29045,14 @@
         <v>944.1166666666667</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0</v>
       </c>
-      <c r="J778" t="n">
-        <v>943</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L778" t="inlineStr"/>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29164,20 +29080,14 @@
         <v>944.0833333333334</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0</v>
       </c>
-      <c r="J779" t="n">
-        <v>943</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L779" t="inlineStr"/>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29205,20 +29115,14 @@
         <v>944.0833333333334</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
         <v>0</v>
       </c>
-      <c r="J780" t="n">
-        <v>945</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L780" t="inlineStr"/>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29253,11 +29157,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L781" t="inlineStr"/>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29292,11 +29192,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L782" t="inlineStr"/>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29331,11 +29227,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L783" t="inlineStr"/>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29370,11 +29262,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L784" t="inlineStr"/>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29409,11 +29297,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L785" t="inlineStr"/>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29448,11 +29332,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -29487,11 +29367,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L787" t="inlineStr"/>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -29526,11 +29402,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L788" t="inlineStr"/>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -29565,11 +29437,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -29604,11 +29472,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L790" t="inlineStr"/>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -29643,11 +29507,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L791" t="inlineStr"/>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -29682,11 +29542,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L792" t="inlineStr"/>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -29721,11 +29577,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L793" t="inlineStr"/>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -29760,11 +29612,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L794" t="inlineStr"/>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -29799,11 +29647,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L795" t="inlineStr"/>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -29838,11 +29682,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L796" t="inlineStr"/>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -29877,11 +29717,7 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L797" t="inlineStr"/>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -29916,11 +29752,7 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -29955,11 +29787,7 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -29994,11 +29822,7 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L800" t="inlineStr"/>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -30033,11 +29857,7 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L801" t="inlineStr"/>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -30072,11 +29892,7 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L802" t="inlineStr"/>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -30111,11 +29927,7 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L803" t="inlineStr"/>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -30150,11 +29962,7 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L804" t="inlineStr"/>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30189,11 +29997,7 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L805" t="inlineStr"/>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30228,11 +30032,7 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L806" t="inlineStr"/>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30267,11 +30067,7 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L807" t="inlineStr"/>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30306,11 +30102,7 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L808" t="inlineStr"/>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30345,11 +30137,7 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L809" t="inlineStr"/>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30384,11 +30172,7 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L810" t="inlineStr"/>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30423,11 +30207,7 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L811" t="inlineStr"/>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30462,11 +30242,7 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L812" t="inlineStr"/>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -30501,11 +30277,7 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L813" t="inlineStr"/>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -30540,11 +30312,7 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L814" t="inlineStr"/>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -30579,11 +30347,7 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L815" t="inlineStr"/>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -30618,11 +30382,7 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L816" t="inlineStr"/>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -30657,11 +30417,7 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L817" t="inlineStr"/>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -30696,11 +30452,7 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L818" t="inlineStr"/>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -30735,11 +30487,7 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L819" t="inlineStr"/>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -30774,11 +30522,7 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L820" t="inlineStr"/>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -30813,11 +30557,7 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L821" t="inlineStr"/>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -30852,11 +30592,7 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L822" t="inlineStr"/>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -30891,11 +30627,7 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L823" t="inlineStr"/>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -30930,11 +30662,7 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L824" t="inlineStr"/>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -30969,11 +30697,7 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L825" t="inlineStr"/>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -31008,11 +30732,7 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L826" t="inlineStr"/>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -31047,11 +30767,7 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L827" t="inlineStr"/>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -31086,11 +30802,7 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L828" t="inlineStr"/>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -31125,11 +30837,7 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L829" t="inlineStr"/>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -31164,11 +30872,7 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L830" t="inlineStr"/>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -31203,11 +30907,7 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L831" t="inlineStr"/>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -31242,11 +30942,7 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L832" t="inlineStr"/>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -31281,11 +30977,7 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L833" t="inlineStr"/>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -31320,11 +31012,7 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L834" t="inlineStr"/>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -31359,11 +31047,7 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L835" t="inlineStr"/>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -31398,11 +31082,7 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -31437,11 +31117,7 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -31476,11 +31152,7 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -31515,11 +31187,7 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -31554,11 +31222,7 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -31593,11 +31257,7 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -31632,11 +31292,7 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -31671,11 +31327,7 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -31710,11 +31362,7 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -31749,11 +31397,7 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -31788,11 +31432,7 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -31827,11 +31467,7 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -31866,11 +31502,7 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -31905,11 +31537,7 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L849" t="inlineStr"/>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -31944,11 +31572,7 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L850" t="inlineStr"/>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -31983,11 +31607,7 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -32022,11 +31642,7 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L852" t="inlineStr"/>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -32061,11 +31677,7 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L853" t="inlineStr"/>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -32100,11 +31712,7 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -32139,11 +31747,7 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L855" t="inlineStr"/>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -32178,11 +31782,7 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L856" t="inlineStr"/>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -32217,11 +31817,7 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L857" t="inlineStr"/>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -32256,11 +31852,7 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L858" t="inlineStr"/>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -32295,11 +31887,7 @@
       </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L859" t="inlineStr"/>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -32334,11 +31922,7 @@
       </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L860" t="inlineStr"/>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -32373,11 +31957,7 @@
       </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L861" t="inlineStr"/>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -32412,11 +31992,7 @@
       </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L862" t="inlineStr"/>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -32451,11 +32027,7 @@
       </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L863" t="inlineStr"/>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -32490,11 +32062,7 @@
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L864" t="inlineStr"/>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -32529,11 +32097,7 @@
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L865" t="inlineStr"/>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -32568,11 +32132,7 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L866" t="inlineStr"/>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -32607,11 +32167,7 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L867" t="inlineStr"/>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -32646,11 +32202,7 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -32685,11 +32237,7 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -32724,11 +32272,7 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -32763,11 +32307,7 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -32802,11 +32342,7 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -32841,11 +32377,7 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -32880,11 +32412,7 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -32919,11 +32447,7 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -32958,11 +32482,7 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L876" t="inlineStr"/>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -32997,11 +32517,7 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L877" t="inlineStr"/>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -33036,11 +32552,7 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L878" t="inlineStr"/>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -33075,11 +32587,7 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -33114,11 +32622,7 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L880" t="inlineStr"/>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -33153,11 +32657,7 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L881" t="inlineStr"/>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -33192,11 +32692,7 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -33231,11 +32727,7 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L883" t="inlineStr"/>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -33270,11 +32762,7 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L884" t="inlineStr"/>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -33309,11 +32797,7 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -33348,11 +32832,7 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -33387,11 +32867,7 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L887" t="inlineStr"/>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -33426,11 +32902,7 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L888" t="inlineStr"/>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -33465,11 +32937,7 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L889" t="inlineStr"/>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -33504,11 +32972,7 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -33543,11 +33007,7 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L891" t="inlineStr"/>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -33582,11 +33042,7 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L892" t="inlineStr"/>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -33621,11 +33077,7 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L893" t="inlineStr"/>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -33660,11 +33112,7 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -33699,11 +33147,7 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L895" t="inlineStr"/>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -33738,11 +33182,7 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L896" t="inlineStr"/>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -33777,11 +33217,7 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L897" t="inlineStr"/>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -33816,11 +33252,7 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L898" t="inlineStr"/>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -33855,11 +33287,7 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L899" t="inlineStr"/>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -33894,11 +33322,7 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L900" t="inlineStr"/>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -33933,11 +33357,7 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L901" t="inlineStr"/>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -33972,11 +33392,7 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L902" t="inlineStr"/>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -34011,11 +33427,7 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -34050,11 +33462,7 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L904" t="inlineStr"/>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -34089,11 +33497,7 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L905" t="inlineStr"/>
       <c r="M905" t="n">
         <v>1</v>
       </c>
